--- a/data/sheets/Diversifieds.xlsx
+++ b/data/sheets/Diversifieds.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28aa9e46087b5738/0-Concordia_Capital/excel_to_https/excel_web_refresh/export/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24D2DE82-6314-4E33-9BD7-1B944DF19D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2B4E49F-A5EA-4963-9073-5E38533B1D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0CD74AB-6A36-4F80-BEF0-9813217196DD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DA04CB6E-33AD-49E1-95E8-51A36CF614A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Diversifieds" sheetId="2" r:id="rId1"/>
+    <sheet name="Diversifieds" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -48,7 +48,6 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" localSheetId="0" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
@@ -404,14 +403,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -711,273 +703,271 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{AF25B89E-B384-4390-B9B4-079B573F5752}"/>
-    <cellStyle name="百分比 2" xfId="2" xr:uid="{3518CF9C-2784-4F4E-BAF5-FF6FEBF0ED93}"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1455,7 +1445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD58E700-F9EC-489A-BE02-CB66A76345EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA17B56C-E5F2-48C1-877C-A30761E26CFB}">
   <dimension ref="A1:AU65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1466,7 +1456,7 @@
       <selection pane="bottomRight" activeCell="I2678" sqref="I2678"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.109375" style="3" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="2" max="7" width="12.77734375" style="3" hidden="1" customWidth="1" outlineLevel="2"/>
@@ -1503,7 +1493,7 @@
     <col min="48" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1598,7 +1588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1707,7 +1697,7 @@
       <c r="AT2" s="26"/>
       <c r="AU2" s="27"/>
     </row>
-    <row r="3" spans="1:47" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>35</v>
       </c>
@@ -1778,7 +1768,7 @@
       <c r="AT3" s="38"/>
       <c r="AU3" s="39"/>
     </row>
-    <row r="4" spans="1:47" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="L4" s="16"/>
       <c r="M4" s="28"/>
       <c r="N4" s="30"/>
@@ -1814,7 +1804,7 @@
       <c r="AT4" s="38"/>
       <c r="AU4" s="39"/>
     </row>
-    <row r="5" spans="1:47" ht="16.8" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" ht="16.8" collapsed="1" x14ac:dyDescent="0.25">
       <c r="J5" s="41" t="s">
         <v>60</v>
       </c>
@@ -1855,7 +1845,7 @@
       <c r="AT5" s="38"/>
       <c r="AU5" s="38"/>
     </row>
-    <row r="6" spans="1:47" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L6, A$3)</f>
         <v>#NAME?</v>
@@ -2027,7 +2017,7 @@
       </c>
       <c r="AU6" s="38"/>
     </row>
-    <row r="7" spans="1:47" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L7, A$3)</f>
         <v>#NAME?</v>
@@ -2199,7 +2189,7 @@
       </c>
       <c r="AU7" s="38"/>
     </row>
-    <row r="8" spans="1:47" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L8, A$3)</f>
         <v>#NAME?</v>
@@ -2371,7 +2361,7 @@
       </c>
       <c r="AU8" s="38"/>
     </row>
-    <row r="9" spans="1:47" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L9, A$3)</f>
         <v>#NAME?</v>
@@ -2543,7 +2533,7 @@
       </c>
       <c r="AU9" s="38"/>
     </row>
-    <row r="10" spans="1:47" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L10, A$3)</f>
         <v>#NAME?</v>
@@ -2715,7 +2705,7 @@
       </c>
       <c r="AU10" s="38"/>
     </row>
-    <row r="11" spans="1:47" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
@@ -3120,10 +3110,10 @@
       <c r="F25" s="47"/>
       <c r="G25" s="47"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N26" s="68"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N27" s="68"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -3452,7 +3442,7 @@
       <c r="F63" s="47"/>
       <c r="G63" s="47"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="85"/>
       <c r="B65" s="85"/>
       <c r="C65" s="85"/>
